--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="85">
   <si>
     <t>Name</t>
   </si>
@@ -129,18 +129,12 @@
     <t xml:space="preserve">Credenciales de la Oficina Virtual </t>
   </si>
   <si>
-    <t>http://10.20.65.103:7001/OficinaVirtual_666/</t>
-  </si>
-  <si>
     <t>RutaAplicativo</t>
   </si>
   <si>
     <t>Url de aplicativo de Oficina Virtual</t>
   </si>
   <si>
-    <t>http://10.20.65.103:7001/OficinaVirtual_666/FormularioGenerico/FormularioGenerico.jsp</t>
-  </si>
-  <si>
     <t>RutaFormularioGenerico</t>
   </si>
   <si>
@@ -277,6 +271,15 @@
   </si>
   <si>
     <t>LP.OFVI.RegistroTrámiteOV</t>
+  </si>
+  <si>
+    <t>Correo_Error</t>
+  </si>
+  <si>
+    <t>http://10.20.1.102:9003/workflow/</t>
+  </si>
+  <si>
+    <t>http://10.20.1.102:9003/workflow/FormularioGenerico/FormularioGenerico.jsp</t>
   </si>
 </sst>
 </file>
@@ -680,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -763,122 +766,122 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12.75" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12.75" customHeight="1">
@@ -887,17 +890,17 @@
     </row>
     <row r="27" spans="1:2" ht="14.25" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="30" spans="1:2" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -906,36 +909,36 @@
     <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="32" spans="1:2" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="35" spans="1:2" ht="14.25" customHeight="1">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="37" spans="1:2" ht="14.25" customHeight="1">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" customHeight="1"/>
@@ -944,36 +947,36 @@
         <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="14.25" customHeight="1">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14.25" customHeight="1">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="14.25" customHeight="1">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="14.25" customHeight="1">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B43">
         <v>10</v>
@@ -983,7 +986,7 @@
     <row r="45" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="46" spans="1:2" ht="14.25" customHeight="1">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -991,13 +994,16 @@
     </row>
     <row r="47" spans="1:2" ht="14.25" customHeight="1">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B47">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A48" t="s">
+        <v>82</v>
+      </c>
       <c r="B48">
         <v>3</v>
       </c>
@@ -1024,7 +1030,7 @@
     </row>
     <row r="53" spans="1:2" ht="14.25" customHeight="1">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B53">
         <v>8</v>
@@ -3160,26 +3166,26 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
